--- a/Gitコマンドの流れ.xlsx
+++ b/Gitコマンドの流れ.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikK90724\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業用フォルダ\github\knowlage\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B5492-97AB-4B6C-BF59-59516E74B6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63296D02-78DC-4AF0-BE0C-B2950FA59BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="16416" xr2:uid="{659B31F1-39A1-4B7E-AFCB-15499F2962DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{659B31F1-39A1-4B7E-AFCB-15499F2962DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="基本的な流れ" sheetId="1" r:id="rId1"/>
+    <sheet name="コマンドイメージ" sheetId="2" r:id="rId1"/>
+    <sheet name="基本的な流れ(clone→push)" sheetId="1" r:id="rId2"/>
+    <sheet name="更新の取消し" sheetId="3" r:id="rId3"/>
+    <sheet name="git resetあれこれ" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,17 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>今回対象とするリポジトリは以下。重要なのは赤枠部分。</t>
-    <rPh sb="16" eb="18">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>アカワクブブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="114">
   <si>
     <t>【Git Bash Here】をクリック。</t>
     <phoneticPr fontId="2"/>
@@ -250,26 +243,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コマンド例）cd react-ts-study</t>
-    <rPh sb="4" eb="5">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>cdコマンドで対象のフォルダパスを指定する。</t>
     <rPh sb="7" eb="9">
       <t>タイショウ</t>
     </rPh>
     <rPh sb="17" eb="19">
       <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コマンド例）git clone -b main https://github.com/THasegawa0216/react-ts-study.git</t>
-    <rPh sb="4" eb="5">
-      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -394,13 +373,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コマンド例）git checkout -b branch/sample-001</t>
-    <rPh sb="4" eb="5">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※この時点ではまだ、Github上のリポジトリには【branch/sample-001】ブランチは作成されていない。</t>
     <rPh sb="3" eb="5">
       <t>ジテン</t>
@@ -449,6 +421,1395 @@
     <t>コマンド例）git push --set-upstream origin branch/sample-001</t>
     <rPh sb="4" eb="5">
       <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④更新したファイルをリモートリポジトリに反映</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>cloneして取得したフォルダ配下でファイルを編集する。</t>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※上記の流れでコンソールを開いたままの場合、この手順は不要</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Git Bash Here」で再度コンソールを開く。必要に応じてcdコマンドで対象のフォルダパスを指定する。</t>
+    <rPh sb="16" eb="18">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集したファイルのうち、リモートリポジトリにコミットしたいファイルを更新対象として設定する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>コウシンタイショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1ファイルずつ設定する場合のコマンドは【git add [ソースファイルパス]】</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全ファイルまとめてaddしたい場合は【git add .】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この状態で【git status -s 】を再度実施すると、以下の様に緑色の文字になる。</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ミドリイロ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※この時点ではまだコミットされていない。</t>
+    <rPh sb="3" eb="5">
+      <t>ジテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>更新対象として設定したファイルを、【git commit】コマンドで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ローカルリポジトリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にコミットする。また、【-m】オプションで変更履歴に表示するコメントを設定する。</t>
+    </r>
+    <rPh sb="0" eb="4">
+      <t>コウシンタイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>ヘンコウリレキ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集したファイル（差分のあるファイル）を【git status -s 】で確認する。赤い文字でMや??のついているものが編集したファイルを表している。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要：コミットやpushの実施を取り消したい（なかったことにしたい）場合の流れ</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git rm --cached ファイル名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例えば、以下の様な事例を対処する際の手順やコマンドの例です。</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジレイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイショ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git reset HEAD ファイル名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git reset HEAD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージングからコミット対象のファイルを除外するため、以下のコマンドを実行</t>
+    <rPh sb="27" eb="29">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直前にコミットした際のファイルの状態に戻すため、以下のコマンドを実行</t>
+    <rPh sb="0" eb="2">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※全ファイルのaddを取り消したい場合はこちら</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A:新規ローカルリポジトリの場合</t>
+    <rPh sb="2" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B:上記以外（1回以上のコミットがある状態）の場合</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※git resetの使い道は幅広く、リモートリポジトリの更新取消しも可能。後述参照。</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハバヒロ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トリケ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①全てのファイルをaddしたけど不要なファイルがあったので除外したい</t>
+    <rPh sb="29" eb="31">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②コミット後、リモートリポジトリにpushする前にコミットを取消して、再度ファイルの修正を行いたい</t>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トリケ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③pushするブランチを間違えた。コミット履歴からなかったことにしたい</t>
+    <rPh sb="12" eb="14">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git resetのオプション指定がない場合、「--mixed」指定の挙動になります。</t>
+    <rPh sb="15" eb="17">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git reset --soft HEAD~1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※最新のコミットを取り消す</t>
+    <rPh sb="1" eb="3">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git reset --soft HEAD~3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※直近３つのコミットを取り消す</t>
+    <rPh sb="1" eb="3">
+      <t>チョッキン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git reflog</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※git reset --softで取消したが、取り消す前に戻したい場合、</t>
+    <rPh sb="18" eb="20">
+      <t>トリケ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>操作ログから戻したいポイントのハッシュ値を探し、そこにリセットする</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git reset --soft ハッシュ値</t>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※操作ログを表示</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※操作ログで見つけたハッシュ値の状態まで戻す</t>
+    <rPh sb="1" eb="3">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリのコミット内容を、リモートリポジトリに反映する。</t>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンド例）git commit -m "サンプルファイルの追加、及び編集"</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンド例）git push --force-with-lease</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リポジトリは以下を利用して説明を記載する。重要なのは赤枠部分で、プロジェクトによって異なる。</t>
+    <rPh sb="9" eb="11">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>アカワクブブン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コマンド例）</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>git config --global user.email "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>メールアドレス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>git config --global user.name "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>git config --global http.proxy http://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>xxxxxx.co.jp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ポート番号</t>
+    </r>
+    <rPh sb="54" eb="56">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>git config --global https.proxy http://</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>xxxxxx.co.jp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ポート番号</t>
+    </r>
+    <rPh sb="55" eb="57">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>コマンド例）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>赤字部分は変更して実行すること。以降も同様</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git clone -b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> https://github.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>THasegawa0216/react-ts-study</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.git</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>react-ts-study</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git checkout -b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>branch/sample-001</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以上。上記の流れで、github上のソースコードを編集・更新することが出来る。</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリの状態に応じてコマンドが異なります。</t>
+  </si>
+  <si>
+    <t>リモートリポジトリにpushする前、という前提です。</t>
+    <rPh sb="21" eb="23">
+      <t>ゼンテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右図赤枠部分を取り消す際の説明です。</t>
+    <rPh sb="0" eb="2">
+      <t>ミギズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>間違えたので変更履歴すら残さず、なかったことにしたい場合です。</t>
+    <rPh sb="0" eb="2">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ヘンコウリレキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git reset --hard HEAD^</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git clone -b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>戻したいブランチ gitURL.git</t>
+    </r>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>戻したいブランチフォルダ</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git push -f origin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>戻したいブランチ</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④pushしたけど他の対応を先に反映したいので、取り消したい。pushした際の変更履歴は残したい。</t>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>ヘンコウリレキ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>③同様、リモートリポジトリに対するpushの取消しです。ただし変更履歴を残したい場合のコマンドです。</t>
+    <rPh sb="1" eb="3">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トリケ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ヘンコウリレキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※-fを付けて強制的にpushします。-fがないとエラーになります。</t>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象のリモートリポジトリのソースをreset後、pushします。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>流れとしては以下のイメージですが、git pullからのresetでも可能です。</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※打ち消したいコミットのハッシュ値はGithubの画面、あるいは「git log」や「git reflog」で特定する</t>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Githubであれば以下からコピー可能</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git revert </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ハッシュ値</t>
+    </r>
+    <rPh sb="15" eb="16">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要：git resetのオプションによる挙動の違いについて補足</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git resetは以下のオプションを指定することが可能。</t>
+    <rPh sb="10" eb="12">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>--soft</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>--hard</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>--mixed</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※オプション無しの場合はmixed指定と同じ。</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■--softを指定した場合</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■--mixedを指定した場合</t>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■--hardを指定した場合</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集したファイルの内容まで戻ってしまうので滅多に使いませんが、</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>メッタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集してローカルリポジトリへのコミットまで実施したが、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正内容が完全に誤っていた等で１からやり直したい（clone直後の状態に戻したい）ような場面で使用します。</t>
+    <rPh sb="0" eb="4">
+      <t>シュウセイナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git resetはpushした変更履歴をなかったことにするため、</t>
+    <rPh sb="16" eb="20">
+      <t>ヘンコウリレキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リモートリポジトリの変更内容を別のブランチにmergeした後にresetした場合、</t>
+    <rPh sb="10" eb="14">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>整合性が取れなくなってmergeできなくなるため、注意すること。</t>
+    <rPh sb="0" eb="3">
+      <t>セイゴウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右図赤枠部分（ローカルリポジトリ、インデックス、作業ブランチ（ディレクトリ）のファイル全て）が</t>
+    <rPh sb="0" eb="2">
+      <t>ミギズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アカワク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリに対してコミットしたけど、もう少し編集したい内容があった、</t>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あるいはコミット時のコメントを間違えた、など</t>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直前のコミットをなかったことにしたい場合に使用します。</t>
+    <rPh sb="0" eb="2">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右図、青枠部分（ローカルリポジトリ、インデックス）が前回の状態までリセットされます。</t>
+    <rPh sb="0" eb="2">
+      <t>ミギズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回の状態までリセットされます。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右図、緑枠部分（ローカルリポジトリ）が前回の状態までリセットされます。</t>
+    <rPh sb="0" eb="2">
+      <t>ミギズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git addして、commitまで実施したものの、</t>
+    <rPh sb="18" eb="20">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対象のファイルはコミットしたくなかった（githubで管理したくないファイルだった）、などの理由で</t>
+    <rPh sb="46" eb="48">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルの変更内容はそのままで、gitに対する更新をなかったことにしたい場合に使用します。</t>
+    <rPh sb="5" eb="9">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -457,7 +1818,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +1856,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -524,7 +1900,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -534,12 +1910,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -553,6 +1943,243 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>109921</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86508</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18589576-FBB0-94A1-8EDC-7FBD0F63D59F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="228600"/>
+          <a:ext cx="9573961" cy="5611008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>101124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1775F146-D02B-440E-BEFC-A243E6C697E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="617220" y="63093599"/>
+          <a:ext cx="6789420" cy="3530125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>137108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{974CB222-D242-453C-814C-8F94C157E893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="617220" y="58712100"/>
+          <a:ext cx="6492240" cy="3375608"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>143712</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{793C83C5-E967-4FC6-B38A-03D1B140E8B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="617220" y="54521100"/>
+          <a:ext cx="6521652" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -580,7 +2207,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -773,7 +2400,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -865,239 +2492,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>134389</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B74969-8A84-C3BF-42F3-7D82E1851A25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="617220" y="12664440"/>
-          <a:ext cx="6923809" cy="3600000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>142582</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078B85DB-8D71-44E3-8CDB-F2EFE8C0AE37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="617220" y="16474440"/>
-          <a:ext cx="6932002" cy="3604260"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>176402</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAC59D2-2A38-41C3-9121-9C3E2EF148AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="617220" y="20855939"/>
-          <a:ext cx="6934200" cy="3605403"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>176402</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9613DE61-3CBD-470A-948F-AE1F2C54BE17}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="617220" y="25283160"/>
-          <a:ext cx="6934200" cy="3605402"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>115177</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>152980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1114,7 +2515,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1140,13 +2541,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1205,103 +2606,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>134389</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>37809</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4E23A2-B70F-460A-80DD-1021557F8774}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="617220" y="34282380"/>
-          <a:ext cx="6923809" cy="2323809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
-      <xdr:row>212</xdr:row>
-      <xdr:rowOff>37809</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40E3576-E45F-A565-2296-3958D2F430BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="617220" y="38282880"/>
-          <a:ext cx="7200000" cy="2323809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>128335</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1317,7 +2630,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1338,13 +2651,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152752</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1361,7 +2674,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1399,13 +2712,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>257</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1465,13 +2778,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>259</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1589,6 +2902,2097 @@
             </a:rPr>
             <a:t>上に反映された</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>115177</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>152980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267B8C4F-6E12-41EE-ABED-4EF3F180C094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="51282600"/>
+          <a:ext cx="6287377" cy="4153480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート: 処理 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3A4EF0-A22F-466E-84F1-66ED94E22FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="52798980"/>
+          <a:ext cx="960120" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="吹き出し: 四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA57040-1890-4313-BD39-BCBA40BA42F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2872740" y="57470040"/>
+          <a:ext cx="2065020" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72438"/>
+            <a:gd name="adj2" fmla="val -27333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>それぞれ以下を表している。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：差分有り</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>??</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：新規ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="吹き出し: 四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96A7FD2-D0B5-4CAD-8B70-5E56300FB5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="67619880"/>
+          <a:ext cx="4625340" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59154"/>
+            <a:gd name="adj2" fmla="val -37768"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>赤字で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>??</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>だったファイルパスが緑で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>になっている。これは追加ファイルとして認識されたことを表す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>M</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>はマージ（差分反映）対象のファイルを表す。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>190980</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>23110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C56724-1150-4AEB-BDD0-EBB316410A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="617220" y="13045440"/>
+          <a:ext cx="5540220" cy="2880610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937A2878-54A8-44DD-B338-DD6BD0D9529B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="617220" y="16093440"/>
+          <a:ext cx="5547360" cy="2880360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B248D3-DC43-478D-948C-AA526ACEA904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="617220" y="19522440"/>
+          <a:ext cx="5547360" cy="2880360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>193430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>63890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FCD15A-073A-4B01-A5EA-B3C85CBA22D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="615462" y="24301938"/>
+          <a:ext cx="5532120" cy="2965352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>44440</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0297AFDC-53F1-4535-B822-3B17E7D4A346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="617220" y="32758380"/>
+          <a:ext cx="6833860" cy="2293620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>76118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978BF759-B777-4BA0-A614-B3CCDC2ED3A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="617220" y="38282879"/>
+          <a:ext cx="6728460" cy="2171619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC991069-8009-460A-A1D2-79410EE76A37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5897880" y="39456360"/>
+          <a:ext cx="541020" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7161E80-F246-C3DE-B9A6-81C3A00C2ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="39989760"/>
+          <a:ext cx="1135380" cy="251460"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC4E6A73-2D88-435C-AA43-432B0ED99265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="556260" y="40149780"/>
+          <a:ext cx="403860" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 処理 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FD16EC-9E83-4851-BDFB-E03AE1B5CF87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="42908220"/>
+          <a:ext cx="2324100" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 処理 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9871579-0792-4786-AA7E-02FAA66C3665}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="57424320"/>
+          <a:ext cx="1828800" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159027</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>119932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 処理 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9EE55C-7706-424D-BB04-62ECD796F8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="569844" y="68460730"/>
+          <a:ext cx="1895060" cy="490993"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>10603</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>192830</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC223471-4D87-49B0-B371-E270DB837F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6165218" y="2031609"/>
+          <a:ext cx="4490458" cy="2681068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>39758</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>96639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FAACA4-6EF1-1539-D91D-0AE33F56DA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3383637"/>
+          <a:ext cx="567296" cy="429217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>5172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B988E0-98B8-4217-82B4-85F91A0D43A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6154616" y="5263662"/>
+          <a:ext cx="4220307" cy="2519772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>82061</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>40879</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134816</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E8E420-E08F-4977-A0E1-7032ACE0631D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6852138" y="7084613"/>
+          <a:ext cx="574279" cy="248172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>41032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>123093</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>49704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34A6179-085C-4E18-A815-763D67951BA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6154616" y="8012724"/>
+          <a:ext cx="4226169" cy="2523272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>64477</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD5B3AF1-C605-442A-B5A6-78BFEDF65CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8475785" y="9331569"/>
+          <a:ext cx="580292" cy="330235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>151163</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFF417B-9305-F41D-29C8-14B168FF0D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822961" y="11666220"/>
+          <a:ext cx="6179820" cy="4342163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>144781</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E679E803-2DE9-46B0-BFEB-AA5F801FDC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6111241" y="14478000"/>
+          <a:ext cx="259080" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>93327</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E5FECD-DEC0-4867-A91B-56721564938F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5532120" y="457200"/>
+          <a:ext cx="5671167" cy="3398520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="L 字 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E71593-FF14-3FF8-E7A8-6E1E1AA205BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5646420" y="1295399"/>
+          <a:ext cx="2781300" cy="2652813"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2773680"/>
+            <a:gd name="connsiteX1" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2773680"/>
+            <a:gd name="connsiteX2" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY2" fmla="*/ 1302381 h 2773680"/>
+            <a:gd name="connsiteX3" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY3" fmla="*/ 1302381 h 2773680"/>
+            <a:gd name="connsiteX4" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY4" fmla="*/ 2773680 h 2773680"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY5" fmla="*/ 2773680 h 2773680"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 2773680"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2773680"/>
+            <a:gd name="connsiteX1" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2773680"/>
+            <a:gd name="connsiteX2" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY2" fmla="*/ 1302381 h 2773680"/>
+            <a:gd name="connsiteX3" fmla="*/ 2735580 w 3825240"/>
+            <a:gd name="connsiteY3" fmla="*/ 1317621 h 2773680"/>
+            <a:gd name="connsiteX4" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY4" fmla="*/ 2773680 h 2773680"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY5" fmla="*/ 2773680 h 2773680"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 2773680"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2834640"/>
+            <a:gd name="connsiteX1" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2834640"/>
+            <a:gd name="connsiteX2" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY2" fmla="*/ 1302381 h 2834640"/>
+            <a:gd name="connsiteX3" fmla="*/ 2735580 w 3825240"/>
+            <a:gd name="connsiteY3" fmla="*/ 1317621 h 2834640"/>
+            <a:gd name="connsiteX4" fmla="*/ 2750820 w 3825240"/>
+            <a:gd name="connsiteY4" fmla="*/ 2834640 h 2834640"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY5" fmla="*/ 2773680 h 2834640"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 2834640"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2834640"/>
+            <a:gd name="connsiteX1" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2834640"/>
+            <a:gd name="connsiteX2" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY2" fmla="*/ 1302381 h 2834640"/>
+            <a:gd name="connsiteX3" fmla="*/ 2766060 w 3825240"/>
+            <a:gd name="connsiteY3" fmla="*/ 1340481 h 2834640"/>
+            <a:gd name="connsiteX4" fmla="*/ 2750820 w 3825240"/>
+            <a:gd name="connsiteY4" fmla="*/ 2834640 h 2834640"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY5" fmla="*/ 2773680 h 2834640"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 2834640"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2796540"/>
+            <a:gd name="connsiteX1" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2796540"/>
+            <a:gd name="connsiteX2" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY2" fmla="*/ 1302381 h 2796540"/>
+            <a:gd name="connsiteX3" fmla="*/ 2766060 w 3825240"/>
+            <a:gd name="connsiteY3" fmla="*/ 1340481 h 2796540"/>
+            <a:gd name="connsiteX4" fmla="*/ 2758440 w 3825240"/>
+            <a:gd name="connsiteY4" fmla="*/ 2796540 h 2796540"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY5" fmla="*/ 2773680 h 2796540"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY6" fmla="*/ 0 h 2796540"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY0" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX1" fmla="*/ 1432560 w 3825240"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2803804"/>
+            <a:gd name="connsiteX2" fmla="*/ 3825240 w 3825240"/>
+            <a:gd name="connsiteY2" fmla="*/ 1309645 h 2803804"/>
+            <a:gd name="connsiteX3" fmla="*/ 2766060 w 3825240"/>
+            <a:gd name="connsiteY3" fmla="*/ 1347745 h 2803804"/>
+            <a:gd name="connsiteX4" fmla="*/ 2758440 w 3825240"/>
+            <a:gd name="connsiteY4" fmla="*/ 2803804 h 2803804"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY5" fmla="*/ 2780944 h 2803804"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 3825240"/>
+            <a:gd name="connsiteY6" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2766060"/>
+            <a:gd name="connsiteY0" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX1" fmla="*/ 1432560 w 2766060"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2803804"/>
+            <a:gd name="connsiteX2" fmla="*/ 1432560 w 2766060"/>
+            <a:gd name="connsiteY2" fmla="*/ 1295117 h 2803804"/>
+            <a:gd name="connsiteX3" fmla="*/ 2766060 w 2766060"/>
+            <a:gd name="connsiteY3" fmla="*/ 1347745 h 2803804"/>
+            <a:gd name="connsiteX4" fmla="*/ 2758440 w 2766060"/>
+            <a:gd name="connsiteY4" fmla="*/ 2803804 h 2803804"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 2766060"/>
+            <a:gd name="connsiteY5" fmla="*/ 2780944 h 2803804"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 2766060"/>
+            <a:gd name="connsiteY6" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2758440"/>
+            <a:gd name="connsiteY0" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX1" fmla="*/ 1432560 w 2758440"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2803804"/>
+            <a:gd name="connsiteX2" fmla="*/ 1432560 w 2758440"/>
+            <a:gd name="connsiteY2" fmla="*/ 1295117 h 2803804"/>
+            <a:gd name="connsiteX3" fmla="*/ 2758440 w 2758440"/>
+            <a:gd name="connsiteY3" fmla="*/ 1296899 h 2803804"/>
+            <a:gd name="connsiteX4" fmla="*/ 2758440 w 2758440"/>
+            <a:gd name="connsiteY4" fmla="*/ 2803804 h 2803804"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 2758440"/>
+            <a:gd name="connsiteY5" fmla="*/ 2780944 h 2803804"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 2758440"/>
+            <a:gd name="connsiteY6" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2758440"/>
+            <a:gd name="connsiteY0" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX1" fmla="*/ 1432560 w 2758440"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2803804"/>
+            <a:gd name="connsiteX2" fmla="*/ 1440180 w 2758440"/>
+            <a:gd name="connsiteY2" fmla="*/ 1119380 h 2803804"/>
+            <a:gd name="connsiteX3" fmla="*/ 2758440 w 2758440"/>
+            <a:gd name="connsiteY3" fmla="*/ 1296899 h 2803804"/>
+            <a:gd name="connsiteX4" fmla="*/ 2758440 w 2758440"/>
+            <a:gd name="connsiteY4" fmla="*/ 2803804 h 2803804"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 2758440"/>
+            <a:gd name="connsiteY5" fmla="*/ 2780944 h 2803804"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 2758440"/>
+            <a:gd name="connsiteY6" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2773680"/>
+            <a:gd name="connsiteY0" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX1" fmla="*/ 1432560 w 2773680"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2803804"/>
+            <a:gd name="connsiteX2" fmla="*/ 1440180 w 2773680"/>
+            <a:gd name="connsiteY2" fmla="*/ 1119380 h 2803804"/>
+            <a:gd name="connsiteX3" fmla="*/ 2773680 w 2773680"/>
+            <a:gd name="connsiteY3" fmla="*/ 1145126 h 2803804"/>
+            <a:gd name="connsiteX4" fmla="*/ 2758440 w 2773680"/>
+            <a:gd name="connsiteY4" fmla="*/ 2803804 h 2803804"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 2773680"/>
+            <a:gd name="connsiteY5" fmla="*/ 2780944 h 2803804"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 2773680"/>
+            <a:gd name="connsiteY6" fmla="*/ 7264 h 2803804"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2781300"/>
+            <a:gd name="connsiteY0" fmla="*/ 7264 h 2780944"/>
+            <a:gd name="connsiteX1" fmla="*/ 1432560 w 2781300"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 2780944"/>
+            <a:gd name="connsiteX2" fmla="*/ 1440180 w 2781300"/>
+            <a:gd name="connsiteY2" fmla="*/ 1119380 h 2780944"/>
+            <a:gd name="connsiteX3" fmla="*/ 2773680 w 2781300"/>
+            <a:gd name="connsiteY3" fmla="*/ 1145126 h 2780944"/>
+            <a:gd name="connsiteX4" fmla="*/ 2781300 w 2781300"/>
+            <a:gd name="connsiteY4" fmla="*/ 2755876 h 2780944"/>
+            <a:gd name="connsiteX5" fmla="*/ 0 w 2781300"/>
+            <a:gd name="connsiteY5" fmla="*/ 2780944 h 2780944"/>
+            <a:gd name="connsiteX6" fmla="*/ 0 w 2781300"/>
+            <a:gd name="connsiteY6" fmla="*/ 7264 h 2780944"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2781300" h="2780944">
+              <a:moveTo>
+                <a:pt x="0" y="7264"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1432560" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1440180" y="1119380"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2773680" y="1145126"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2781300" y="2755876"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="2780944"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="7264"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E444D329-B185-4C52-A7E5-83A383F5345D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7101840" y="2651760"/>
+          <a:ext cx="1173480" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D386BEF6-80B2-44A4-9097-1FDD7CE3A17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5737860" y="2468880"/>
+          <a:ext cx="2613660" cy="1341120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="50800">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1893,12 +5297,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F034EE12-9535-4076-B7BA-036382273820}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="3"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1B44C0-D997-4DCA-8A3A-62EE00B25CE0}">
-  <dimension ref="B2:E241"/>
+  <dimension ref="B2:E369"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A231" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B267" sqref="B267"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1907,137 +5326,651 @@
   <sheetData>
     <row r="2" spans="2:5" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C35" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C68" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C68" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C109" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B130" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D70" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D71" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C106" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D107" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D108" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D109" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B128" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C129" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C130" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D132" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D133" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C152" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B176" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C177" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C178" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D179" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D180" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C195" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C196" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C197" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C133" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C134" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C155" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
-      <c r="B179" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C180" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C181" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C182" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C197" s="2" t="s">
+    <row r="198" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D198" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D199" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C213" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C198" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C199" s="2" t="s">
+    <row r="238" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C238" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C200" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C214" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C239" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C240" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B266" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C267" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C291" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D292" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D293" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C294" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C241" s="2" t="s">
-        <v>26</v>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C296" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C317" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C318" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C319" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C340" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C341" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C363" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D364" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C366" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D367" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B369" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A438D2FF-5567-450C-9465-0747CE7F4046}">
+  <dimension ref="B2:N63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="E22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="E23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D38" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="D39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C43" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C46" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C47" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C49" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C51" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C52" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C53" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B57" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C58" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C60" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C62" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3426EF77-96FC-40B8-B0BE-B08341715792}">
+  <dimension ref="B2:H32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C5" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C16" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C22" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C28" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C32" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
